--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="105">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -242,12 +242,6 @@
   </si>
   <si>
     <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
   </si>
   <si>
     <t>enzyme/rxn</t>
@@ -487,8 +481,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,7 +527,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,10 +612,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -636,12 +630,6 @@
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -650,12 +638,6 @@
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -664,12 +646,6 @@
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -678,12 +654,6 @@
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -692,12 +662,6 @@
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -706,12 +670,6 @@
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -719,12 +677,6 @@
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
       </c>
     </row>
   </sheetData>
@@ -756,16 +708,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,13 +934,13 @@
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,51 +1247,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,13 +1299,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -1370,16 +1322,16 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1393,16 +1345,16 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>27</v>
@@ -1419,13 +1371,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1439,16 +1391,16 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1462,16 +1414,16 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>27</v>
@@ -1488,7 +1440,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1502,7 +1454,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1516,7 +1468,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1530,7 +1482,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1544,7 +1496,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1558,7 +1510,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1572,7 +1524,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,321 +32,327 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="105">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_input_valid_3</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="107">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_input_valid_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -354,7 +360,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -437,13 +443,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -479,15 +489,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,62 +532,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -585,21 +595,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -614,26 +632,26 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A5:B5 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -641,7 +659,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -649,7 +667,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -657,7 +675,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -665,7 +683,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -673,7 +691,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -682,7 +700,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -697,32 +715,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -736,7 +754,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -750,7 +768,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -764,7 +782,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -778,7 +796,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -792,7 +810,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -806,7 +824,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -820,7 +838,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -834,7 +852,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -848,7 +866,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -862,7 +880,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -876,7 +894,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -890,7 +908,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -905,7 +923,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -920,32 +938,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -959,7 +977,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -973,7 +991,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -987,7 +1005,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1001,7 +1019,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1015,7 +1033,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1029,7 +1047,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1043,7 +1061,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1057,7 +1075,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1071,7 +1089,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1085,7 +1103,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1099,7 +1117,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1113,7 +1131,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1127,7 +1145,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1141,7 +1159,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1155,7 +1173,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1169,7 +1187,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1183,7 +1201,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1197,7 +1215,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1211,7 +1229,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1226,7 +1244,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1241,74 +1259,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1319,19 +1337,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1342,22 +1360,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1368,16 +1386,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1388,19 +1406,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1411,22 +1429,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1437,10 +1455,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1451,10 +1469,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1465,10 +1483,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1479,10 +1497,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1493,10 +1511,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1507,10 +1525,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1521,10 +1539,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1536,7 +1554,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1551,83 +1569,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1692,7 +1710,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1757,7 +1775,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1822,7 +1840,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1887,7 +1905,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1952,7 +1970,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2017,7 +2035,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2082,7 +2100,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2147,7 +2165,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2212,7 +2230,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2277,7 +2295,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2342,7 +2360,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2407,7 +2425,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2473,7 +2491,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2488,41 +2506,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2539,10 +2557,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2559,10 +2577,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2579,10 +2597,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2599,10 +2617,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2619,10 +2637,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2639,10 +2657,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2659,10 +2677,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2679,10 +2697,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2699,10 +2717,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2719,10 +2737,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2739,10 +2757,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2759,10 +2777,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2779,10 +2797,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2799,10 +2817,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2819,10 +2837,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2839,10 +2857,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2859,10 +2877,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2879,10 +2897,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2899,10 +2917,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2920,7 +2938,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2935,38 +2953,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2977,10 +2995,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2991,10 +3009,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3005,10 +3023,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3019,10 +3037,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3033,10 +3051,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3047,10 +3065,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3061,10 +3079,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3075,10 +3093,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3089,10 +3107,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3103,10 +3121,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3117,10 +3135,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3131,10 +3149,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3146,7 +3164,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3161,89 +3179,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3258,124 +3276,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3390,124 +3408,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3522,29 +3540,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3555,7 +3573,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3566,7 +3584,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3577,7 +3595,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3588,7 +3606,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3599,7 +3617,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3610,7 +3628,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3621,7 +3639,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3632,7 +3650,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3643,7 +3661,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3654,7 +3672,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3665,7 +3683,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3676,7 +3694,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3688,7 +3706,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3703,29 +3721,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3736,7 +3754,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3747,7 +3765,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3758,7 +3776,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3769,7 +3787,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3780,7 +3798,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3791,7 +3809,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3802,7 +3820,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3813,7 +3831,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3824,7 +3842,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3835,7 +3853,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3846,7 +3864,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3857,7 +3875,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3868,7 +3886,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3879,7 +3897,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3890,7 +3908,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3901,7 +3919,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3912,7 +3930,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3923,7 +3941,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3934,7 +3952,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3946,7 +3964,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_input_valid_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -489,10 +471,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -508,24 +490,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -584,6 +566,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -593,27 +578,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -633,7 +600,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A5:B5 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B3 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -643,15 +610,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -659,7 +626,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -667,7 +634,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -675,7 +642,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -683,7 +650,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -691,7 +658,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -716,7 +683,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -726,21 +693,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -754,7 +721,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -768,7 +735,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -782,7 +749,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -796,7 +763,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -810,7 +777,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -824,7 +791,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -838,7 +805,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -852,7 +819,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -866,7 +833,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -880,7 +847,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -894,7 +861,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -908,7 +875,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -939,7 +906,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -949,21 +916,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -977,7 +944,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -991,7 +958,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1005,7 +972,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1019,7 +986,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1033,7 +1000,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1047,7 +1014,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1061,7 +1028,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1075,7 +1042,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1089,7 +1056,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1103,7 +1070,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1117,7 +1084,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1131,7 +1098,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1145,7 +1112,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1159,7 +1126,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1173,7 +1140,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1187,7 +1154,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1201,7 +1168,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1215,7 +1182,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1229,7 +1196,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1260,13 +1227,13 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
@@ -1276,57 +1243,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1337,19 +1304,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1360,22 +1327,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1386,16 +1353,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1406,19 +1373,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1429,22 +1396,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1455,10 +1422,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1469,10 +1436,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1483,10 +1450,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1497,10 +1464,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1511,10 +1478,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1525,10 +1492,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1539,10 +1506,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1570,7 +1537,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1580,72 +1547,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1710,7 +1677,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1775,7 +1742,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1840,7 +1807,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1905,7 +1872,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1970,7 +1937,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2035,7 +2002,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2100,7 +2067,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2165,7 +2132,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2230,7 +2197,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2295,7 +2262,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2360,7 +2327,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2425,7 +2392,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2504,434 +2471,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2951,214 +2793,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="O21" activeCellId="1" sqref="B3 O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3180,7 +2981,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3190,72 +2991,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3078,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3287,107 +3088,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3210,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3419,107 +3220,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3541,7 +3342,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3551,18 +3352,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3573,7 +3374,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3584,7 +3385,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3595,7 +3396,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3606,7 +3407,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3617,7 +3418,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3628,7 +3429,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3639,7 +3440,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3650,7 +3451,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3661,7 +3462,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3672,7 +3473,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3683,7 +3484,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3694,7 +3495,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3722,7 +3523,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3732,18 +3533,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3754,7 +3555,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3765,7 +3566,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3776,7 +3577,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3787,7 +3588,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3798,7 +3599,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3809,7 +3610,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3820,7 +3621,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3831,7 +3632,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3842,7 +3643,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3853,7 +3654,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3864,7 +3665,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3875,7 +3676,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3886,7 +3687,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3897,7 +3698,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3908,7 +3709,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3919,7 +3720,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3930,7 +3731,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3941,7 +3742,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3952,7 +3753,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="100">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -438,12 +435,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -473,7 +470,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -600,7 +597,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B3 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,10 +607,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,7 +680,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -693,16 +690,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,7 +903,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -916,16 +913,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1224,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1243,40 +1240,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,13 +1281,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1307,16 +1304,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1330,16 +1327,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1356,13 +1353,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1376,16 +1373,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1399,16 +1396,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1425,7 +1422,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1439,7 +1436,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1453,7 +1450,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1467,7 +1464,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1481,7 +1478,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1495,7 +1492,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1509,7 +1506,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1537,7 +1534,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2471,16 +2468,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,21 +2490,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2515,13 +2506,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2529,13 +2517,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,13 +2528,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2557,111 +2539,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2669,13 +2627,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2683,13 +2638,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2697,13 +2649,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2711,13 +2660,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,13 +2671,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2739,13 +2682,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2753,13 +2693,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2767,13 +2704,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2796,7 +2730,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="1" sqref="B3 O21"/>
+      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2810,20 +2744,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2834,7 +2768,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2845,7 +2779,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2856,7 +2790,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2867,7 +2801,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2878,7 +2812,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2889,7 +2823,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2900,7 +2834,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2911,7 +2845,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2922,7 +2856,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2933,7 +2867,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2944,7 +2878,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -2955,7 +2889,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -2981,7 +2915,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3078,7 +3012,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3088,7 +3022,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,7 +3144,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3220,7 +3154,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,7 +3276,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3352,13 +3286,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,7 +3457,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3533,13 +3467,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="100">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -594,89 +593,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -895,7 +811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1216,7 +1132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2470,7 +2386,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2912,9 +2828,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2925,72 +2841,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3141,138 +3092,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3449,7 +3268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3705,4 +3524,87 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -421,7 +430,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -432,6 +441,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -469,8 +482,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -518,64 +531,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -596,7 +623,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -606,21 +633,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -634,7 +661,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -648,7 +675,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -662,7 +689,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -676,7 +703,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -690,7 +717,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -704,7 +731,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -718,7 +745,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -732,7 +759,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -746,7 +773,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -760,7 +787,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -774,7 +801,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -788,7 +815,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -819,7 +846,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -829,21 +856,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -857,7 +884,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -871,7 +898,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -885,7 +912,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -899,7 +926,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -913,7 +940,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -927,7 +954,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -941,7 +968,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -955,7 +982,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -969,7 +996,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -983,7 +1010,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -997,7 +1024,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1011,7 +1038,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1025,7 +1052,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1039,7 +1066,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1053,7 +1080,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1067,7 +1094,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1081,7 +1108,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1095,7 +1122,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1109,7 +1136,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1140,7 +1167,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A6:B7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1156,57 +1183,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1217,19 +1244,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1240,22 +1267,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1266,16 +1293,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1286,19 +1313,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1309,22 +1336,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1335,10 +1362,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1349,10 +1376,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1363,10 +1390,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1377,10 +1404,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1391,10 +1418,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1405,10 +1432,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1419,10 +1446,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1450,7 +1477,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1460,72 +1487,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1590,7 +1617,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1655,7 +1682,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1720,7 +1747,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1785,7 +1812,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1850,7 +1877,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1915,7 +1942,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1980,7 +2007,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2045,7 +2072,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2110,7 +2137,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2175,7 +2202,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2240,7 +2267,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2305,7 +2332,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2387,7 +2414,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2398,21 +2425,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2420,10 +2447,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2431,10 +2458,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2442,10 +2469,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2453,10 +2480,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2464,10 +2491,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2475,10 +2502,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2486,10 +2513,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2497,10 +2524,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2508,10 +2535,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2519,10 +2546,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2530,10 +2557,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2541,10 +2568,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2552,10 +2579,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2563,10 +2590,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2574,10 +2601,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2585,10 +2612,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2596,10 +2623,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2607,10 +2634,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2618,10 +2645,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2646,7 +2673,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+      <selection pane="topLeft" activeCell="O21" activeCellId="1" sqref="A6:B7 O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2657,24 +2684,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2682,10 +2709,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2693,10 +2720,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2704,10 +2731,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2715,10 +2742,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2726,10 +2753,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2737,10 +2764,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2748,10 +2775,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2759,10 +2786,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2770,10 +2797,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2781,10 +2808,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2792,10 +2819,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2803,10 +2830,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2830,8 +2857,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2841,107 +2868,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2963,7 +2990,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2973,107 +3000,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3122,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3105,18 +3132,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3127,7 +3154,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3138,7 +3165,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3149,7 +3176,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3160,7 +3187,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3171,7 +3198,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3182,7 +3209,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3193,7 +3220,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3204,7 +3231,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3215,7 +3242,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3226,7 +3253,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3237,7 +3264,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3248,7 +3275,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3276,7 +3303,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3286,18 +3313,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3308,7 +3335,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3319,7 +3346,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3330,7 +3357,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3341,7 +3368,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3352,7 +3379,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3363,7 +3390,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3374,7 +3401,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3385,7 +3412,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3396,7 +3423,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3407,7 +3434,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3418,7 +3445,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3429,7 +3456,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3440,7 +3467,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3451,7 +3478,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3462,7 +3489,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3473,7 +3500,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3484,7 +3511,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3495,7 +3522,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3506,7 +3533,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3534,7 +3561,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A6:B7 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3544,15 +3571,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3560,7 +3587,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3568,7 +3595,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3576,7 +3603,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3584,7 +3611,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3592,7 +3619,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
